--- a/data/mapping_250k_w_qc.xlsx
+++ b/data/mapping_250k_w_qc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/T7/Analysis/aging_manuscript_oral/from_hpc/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA2B315B-C776-D347-921B-41B8BAF427D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462ECDE6-5F80-CF4F-B500-AC4DAD413F9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12380" yWindow="6400" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18720" yWindow="5000" windowWidth="27240" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mapping_250k" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="189">
   <si>
     <t>SampleID</t>
   </si>
@@ -409,15 +409,6 @@
     <t>MKO09_S28</t>
   </si>
   <si>
-    <t>MKO10</t>
-  </si>
-  <si>
-    <t>MKO10_S29_L001_R1_001_kneaddata</t>
-  </si>
-  <si>
-    <t>MKO10_S29</t>
-  </si>
-  <si>
     <t>MWT01</t>
   </si>
   <si>
@@ -596,15 +587,6 @@
   </si>
   <si>
     <t>MYWT-3_S88</t>
-  </si>
-  <si>
-    <t>MYWT-6</t>
-  </si>
-  <si>
-    <t>MYWT-6_S91_L001_R1_001_kneaddata</t>
-  </si>
-  <si>
-    <t>MYWT-6_S91</t>
   </si>
 </sst>
 </file>
@@ -1445,10 +1427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y54"/>
+  <dimension ref="A1:Y52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3929,55 +3911,55 @@
         <v>130</v>
       </c>
       <c r="C33">
-        <v>3024459</v>
+        <v>4431446</v>
       </c>
       <c r="D33">
-        <v>3024459</v>
+        <v>4431446</v>
       </c>
       <c r="E33">
-        <v>6048918</v>
+        <v>8862892</v>
       </c>
       <c r="F33">
-        <v>1929700</v>
+        <v>2489704</v>
       </c>
       <c r="G33">
-        <v>1929700</v>
+        <v>2489704</v>
       </c>
       <c r="H33">
-        <v>181859</v>
+        <v>405824</v>
       </c>
       <c r="I33">
-        <v>90978</v>
+        <v>333925</v>
       </c>
       <c r="J33">
-        <v>1592647</v>
+        <v>384101</v>
       </c>
       <c r="K33">
-        <v>1592647</v>
+        <v>384101</v>
       </c>
       <c r="L33">
-        <v>142391</v>
+        <v>28814</v>
       </c>
       <c r="M33">
-        <v>70846</v>
+        <v>15281</v>
       </c>
       <c r="N33">
-        <v>1592647</v>
+        <v>384101</v>
       </c>
       <c r="O33">
-        <v>1592647</v>
+        <v>384101</v>
       </c>
       <c r="P33">
-        <v>142391</v>
+        <v>28814</v>
       </c>
       <c r="Q33">
-        <v>70846</v>
+        <v>15281</v>
       </c>
       <c r="R33">
-        <v>3398531</v>
+        <v>812297</v>
       </c>
       <c r="S33">
-        <v>56.184114249854296</v>
+        <v>9.1651460945253493</v>
       </c>
       <c r="T33" t="s">
         <v>131</v>
@@ -3986,7 +3968,7 @@
         <v>28</v>
       </c>
       <c r="V33" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="W33" t="s">
         <v>30</v>
@@ -3995,7 +3977,7 @@
         <v>104</v>
       </c>
       <c r="Y33" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.2">
@@ -4006,55 +3988,55 @@
         <v>133</v>
       </c>
       <c r="C34">
-        <v>4431446</v>
+        <v>3490689</v>
       </c>
       <c r="D34">
-        <v>4431446</v>
+        <v>3490689</v>
       </c>
       <c r="E34">
-        <v>8862892</v>
+        <v>6981378</v>
       </c>
       <c r="F34">
-        <v>2489704</v>
+        <v>2103319</v>
       </c>
       <c r="G34">
-        <v>2489704</v>
+        <v>2103319</v>
       </c>
       <c r="H34">
-        <v>405824</v>
+        <v>305255</v>
       </c>
       <c r="I34">
-        <v>333925</v>
+        <v>224262</v>
       </c>
       <c r="J34">
-        <v>384101</v>
+        <v>722572</v>
       </c>
       <c r="K34">
-        <v>384101</v>
+        <v>722572</v>
       </c>
       <c r="L34">
-        <v>28814</v>
+        <v>54570</v>
       </c>
       <c r="M34">
-        <v>15281</v>
+        <v>25583</v>
       </c>
       <c r="N34">
-        <v>384101</v>
+        <v>722572</v>
       </c>
       <c r="O34">
-        <v>384101</v>
+        <v>722572</v>
       </c>
       <c r="P34">
-        <v>28814</v>
+        <v>54570</v>
       </c>
       <c r="Q34">
-        <v>15281</v>
+        <v>25583</v>
       </c>
       <c r="R34">
-        <v>812297</v>
+        <v>1525297</v>
       </c>
       <c r="S34">
-        <v>9.1651460945253493</v>
+        <v>21.848079276039801</v>
       </c>
       <c r="T34" t="s">
         <v>134</v>
@@ -4083,55 +4065,55 @@
         <v>136</v>
       </c>
       <c r="C35">
-        <v>3490689</v>
+        <v>3194466</v>
       </c>
       <c r="D35">
-        <v>3490689</v>
+        <v>3194466</v>
       </c>
       <c r="E35">
-        <v>6981378</v>
+        <v>6388932</v>
       </c>
       <c r="F35">
-        <v>2103319</v>
+        <v>1809776</v>
       </c>
       <c r="G35">
-        <v>2103319</v>
+        <v>1809776</v>
       </c>
       <c r="H35">
-        <v>305255</v>
+        <v>233135</v>
       </c>
       <c r="I35">
-        <v>224262</v>
+        <v>191509</v>
       </c>
       <c r="J35">
-        <v>722572</v>
+        <v>1163596</v>
       </c>
       <c r="K35">
-        <v>722572</v>
+        <v>1163596</v>
       </c>
       <c r="L35">
-        <v>54570</v>
+        <v>78324</v>
       </c>
       <c r="M35">
-        <v>25583</v>
+        <v>50426</v>
       </c>
       <c r="N35">
-        <v>722572</v>
+        <v>1163596</v>
       </c>
       <c r="O35">
-        <v>722572</v>
+        <v>1163596</v>
       </c>
       <c r="P35">
-        <v>54570</v>
+        <v>78324</v>
       </c>
       <c r="Q35">
-        <v>25583</v>
+        <v>50426</v>
       </c>
       <c r="R35">
-        <v>1525297</v>
+        <v>2455942</v>
       </c>
       <c r="S35">
-        <v>21.848079276039801</v>
+        <v>38.440571914053898</v>
       </c>
       <c r="T35" t="s">
         <v>137</v>
@@ -4160,55 +4142,55 @@
         <v>139</v>
       </c>
       <c r="C36">
-        <v>3194466</v>
+        <v>4937406</v>
       </c>
       <c r="D36">
-        <v>3194466</v>
+        <v>4937406</v>
       </c>
       <c r="E36">
-        <v>6388932</v>
+        <v>9874812</v>
       </c>
       <c r="F36">
-        <v>1809776</v>
+        <v>3031028</v>
       </c>
       <c r="G36">
-        <v>1809776</v>
+        <v>3031028</v>
       </c>
       <c r="H36">
-        <v>233135</v>
+        <v>416016</v>
       </c>
       <c r="I36">
-        <v>191509</v>
+        <v>304202</v>
       </c>
       <c r="J36">
-        <v>1163596</v>
+        <v>316079</v>
       </c>
       <c r="K36">
-        <v>1163596</v>
+        <v>316079</v>
       </c>
       <c r="L36">
-        <v>78324</v>
+        <v>21507</v>
       </c>
       <c r="M36">
-        <v>50426</v>
+        <v>9285</v>
       </c>
       <c r="N36">
-        <v>1163596</v>
+        <v>316079</v>
       </c>
       <c r="O36">
-        <v>1163596</v>
+        <v>316079</v>
       </c>
       <c r="P36">
-        <v>78324</v>
+        <v>21507</v>
       </c>
       <c r="Q36">
-        <v>50426</v>
+        <v>9285</v>
       </c>
       <c r="R36">
-        <v>2455942</v>
+        <v>662950</v>
       </c>
       <c r="S36">
-        <v>38.440571914053898</v>
+        <v>6.7135455338289001</v>
       </c>
       <c r="T36" t="s">
         <v>140</v>
@@ -4237,55 +4219,55 @@
         <v>142</v>
       </c>
       <c r="C37">
-        <v>4937406</v>
+        <v>2362590</v>
       </c>
       <c r="D37">
-        <v>4937406</v>
+        <v>2362590</v>
       </c>
       <c r="E37">
-        <v>9874812</v>
+        <v>4725180</v>
       </c>
       <c r="F37">
-        <v>3031028</v>
+        <v>1389964</v>
       </c>
       <c r="G37">
-        <v>3031028</v>
+        <v>1389964</v>
       </c>
       <c r="H37">
-        <v>416016</v>
+        <v>183884</v>
       </c>
       <c r="I37">
-        <v>304202</v>
+        <v>96900</v>
       </c>
       <c r="J37">
-        <v>316079</v>
+        <v>685285</v>
       </c>
       <c r="K37">
-        <v>316079</v>
+        <v>685285</v>
       </c>
       <c r="L37">
-        <v>21507</v>
+        <v>67016</v>
       </c>
       <c r="M37">
-        <v>9285</v>
+        <v>24249</v>
       </c>
       <c r="N37">
-        <v>316079</v>
+        <v>685285</v>
       </c>
       <c r="O37">
-        <v>316079</v>
+        <v>685285</v>
       </c>
       <c r="P37">
-        <v>21507</v>
+        <v>67016</v>
       </c>
       <c r="Q37">
-        <v>9285</v>
+        <v>24249</v>
       </c>
       <c r="R37">
-        <v>662950</v>
+        <v>1461835</v>
       </c>
       <c r="S37">
-        <v>6.7135455338289001</v>
+        <v>30.937128321037498</v>
       </c>
       <c r="T37" t="s">
         <v>143</v>
@@ -4314,55 +4296,55 @@
         <v>145</v>
       </c>
       <c r="C38">
-        <v>2362590</v>
+        <v>2640068</v>
       </c>
       <c r="D38">
-        <v>2362590</v>
+        <v>2640068</v>
       </c>
       <c r="E38">
-        <v>4725180</v>
+        <v>5280136</v>
       </c>
       <c r="F38">
-        <v>1389964</v>
+        <v>1862468</v>
       </c>
       <c r="G38">
-        <v>1389964</v>
+        <v>1862468</v>
       </c>
       <c r="H38">
-        <v>183884</v>
+        <v>158435</v>
       </c>
       <c r="I38">
-        <v>96900</v>
+        <v>94996</v>
       </c>
       <c r="J38">
-        <v>685285</v>
+        <v>1535196</v>
       </c>
       <c r="K38">
-        <v>685285</v>
+        <v>1535196</v>
       </c>
       <c r="L38">
-        <v>67016</v>
+        <v>126432</v>
       </c>
       <c r="M38">
-        <v>24249</v>
+        <v>75160</v>
       </c>
       <c r="N38">
-        <v>685285</v>
+        <v>1535196</v>
       </c>
       <c r="O38">
-        <v>685285</v>
+        <v>1535196</v>
       </c>
       <c r="P38">
-        <v>67016</v>
+        <v>126432</v>
       </c>
       <c r="Q38">
-        <v>24249</v>
+        <v>75160</v>
       </c>
       <c r="R38">
-        <v>1461835</v>
+        <v>3271984</v>
       </c>
       <c r="S38">
-        <v>30.937128321037498</v>
+        <v>61.967797799147597</v>
       </c>
       <c r="T38" t="s">
         <v>146</v>
@@ -4374,13 +4356,13 @@
         <v>57</v>
       </c>
       <c r="W38" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="X38" t="s">
         <v>104</v>
       </c>
       <c r="Y38" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.2">
@@ -4391,55 +4373,55 @@
         <v>148</v>
       </c>
       <c r="C39">
-        <v>2640068</v>
+        <v>2674044</v>
       </c>
       <c r="D39">
-        <v>2640068</v>
+        <v>2674044</v>
       </c>
       <c r="E39">
-        <v>5280136</v>
+        <v>5348088</v>
       </c>
       <c r="F39">
-        <v>1862468</v>
+        <v>1167232</v>
       </c>
       <c r="G39">
-        <v>1862468</v>
+        <v>1167232</v>
       </c>
       <c r="H39">
-        <v>158435</v>
+        <v>201461</v>
       </c>
       <c r="I39">
-        <v>94996</v>
+        <v>158241</v>
       </c>
       <c r="J39">
-        <v>1535196</v>
+        <v>408447</v>
       </c>
       <c r="K39">
-        <v>1535196</v>
+        <v>408447</v>
       </c>
       <c r="L39">
-        <v>126432</v>
+        <v>31760</v>
       </c>
       <c r="M39">
-        <v>75160</v>
+        <v>17699</v>
       </c>
       <c r="N39">
-        <v>1535196</v>
+        <v>408447</v>
       </c>
       <c r="O39">
-        <v>1535196</v>
+        <v>408447</v>
       </c>
       <c r="P39">
-        <v>126432</v>
+        <v>31760</v>
       </c>
       <c r="Q39">
-        <v>75160</v>
+        <v>17699</v>
       </c>
       <c r="R39">
-        <v>3271984</v>
+        <v>866353</v>
       </c>
       <c r="S39">
-        <v>61.967797799147597</v>
+        <v>16.199303377206999</v>
       </c>
       <c r="T39" t="s">
         <v>149</v>
@@ -4468,55 +4450,55 @@
         <v>151</v>
       </c>
       <c r="C40">
-        <v>2674044</v>
+        <v>5635404</v>
       </c>
       <c r="D40">
-        <v>2674044</v>
+        <v>5635404</v>
       </c>
       <c r="E40">
-        <v>5348088</v>
+        <v>11270808</v>
       </c>
       <c r="F40">
-        <v>1167232</v>
+        <v>3378426</v>
       </c>
       <c r="G40">
-        <v>1167232</v>
+        <v>3378426</v>
       </c>
       <c r="H40">
-        <v>201461</v>
+        <v>479748</v>
       </c>
       <c r="I40">
-        <v>158241</v>
+        <v>340730</v>
       </c>
       <c r="J40">
-        <v>408447</v>
+        <v>157506</v>
       </c>
       <c r="K40">
-        <v>408447</v>
+        <v>157506</v>
       </c>
       <c r="L40">
-        <v>31760</v>
+        <v>11826</v>
       </c>
       <c r="M40">
-        <v>17699</v>
+        <v>5297</v>
       </c>
       <c r="N40">
-        <v>408447</v>
+        <v>157506</v>
       </c>
       <c r="O40">
-        <v>408447</v>
+        <v>157506</v>
       </c>
       <c r="P40">
-        <v>31760</v>
+        <v>11826</v>
       </c>
       <c r="Q40">
-        <v>17699</v>
+        <v>5297</v>
       </c>
       <c r="R40">
-        <v>866353</v>
+        <v>332135</v>
       </c>
       <c r="S40">
-        <v>16.199303377206999</v>
+        <v>2.9468605977495099</v>
       </c>
       <c r="T40" t="s">
         <v>152</v>
@@ -4545,55 +4527,55 @@
         <v>154</v>
       </c>
       <c r="C41">
-        <v>5635404</v>
+        <v>3911164</v>
       </c>
       <c r="D41">
-        <v>5635404</v>
+        <v>3911164</v>
       </c>
       <c r="E41">
-        <v>11270808</v>
+        <v>7822328</v>
       </c>
       <c r="F41">
-        <v>3378426</v>
+        <v>2312895</v>
       </c>
       <c r="G41">
-        <v>3378426</v>
+        <v>2312895</v>
       </c>
       <c r="H41">
-        <v>479748</v>
+        <v>348600</v>
       </c>
       <c r="I41">
-        <v>340730</v>
+        <v>241800</v>
       </c>
       <c r="J41">
-        <v>157506</v>
+        <v>373765</v>
       </c>
       <c r="K41">
-        <v>157506</v>
+        <v>373765</v>
       </c>
       <c r="L41">
-        <v>11826</v>
+        <v>26654</v>
       </c>
       <c r="M41">
-        <v>5297</v>
+        <v>11109</v>
       </c>
       <c r="N41">
-        <v>157506</v>
+        <v>373765</v>
       </c>
       <c r="O41">
-        <v>157506</v>
+        <v>373765</v>
       </c>
       <c r="P41">
-        <v>11826</v>
+        <v>26654</v>
       </c>
       <c r="Q41">
-        <v>5297</v>
+        <v>11109</v>
       </c>
       <c r="R41">
-        <v>332135</v>
+        <v>785293</v>
       </c>
       <c r="S41">
-        <v>2.9468605977495099</v>
+        <v>10.039121345972699</v>
       </c>
       <c r="T41" t="s">
         <v>155</v>
@@ -4622,55 +4604,55 @@
         <v>157</v>
       </c>
       <c r="C42">
-        <v>3911164</v>
+        <v>6878035</v>
       </c>
       <c r="D42">
-        <v>3911164</v>
+        <v>6878035</v>
       </c>
       <c r="E42">
-        <v>7822328</v>
+        <v>13756070</v>
       </c>
       <c r="F42">
-        <v>2312895</v>
+        <v>3249432</v>
       </c>
       <c r="G42">
-        <v>2312895</v>
+        <v>3249432</v>
       </c>
       <c r="H42">
-        <v>348600</v>
+        <v>488983</v>
       </c>
       <c r="I42">
-        <v>241800</v>
+        <v>365459</v>
       </c>
       <c r="J42">
-        <v>373765</v>
+        <v>720442</v>
       </c>
       <c r="K42">
-        <v>373765</v>
+        <v>720442</v>
       </c>
       <c r="L42">
-        <v>26654</v>
+        <v>57198</v>
       </c>
       <c r="M42">
-        <v>11109</v>
+        <v>27453</v>
       </c>
       <c r="N42">
-        <v>373765</v>
+        <v>720442</v>
       </c>
       <c r="O42">
-        <v>373765</v>
+        <v>720442</v>
       </c>
       <c r="P42">
-        <v>26654</v>
+        <v>57198</v>
       </c>
       <c r="Q42">
-        <v>11109</v>
+        <v>27453</v>
       </c>
       <c r="R42">
-        <v>785293</v>
+        <v>1525535</v>
       </c>
       <c r="S42">
-        <v>10.039121345972699</v>
+        <v>11.0899043113331</v>
       </c>
       <c r="T42" t="s">
         <v>158</v>
@@ -4699,55 +4681,55 @@
         <v>160</v>
       </c>
       <c r="C43">
-        <v>6878035</v>
+        <v>7386125</v>
       </c>
       <c r="D43">
-        <v>6878035</v>
+        <v>7386125</v>
       </c>
       <c r="E43">
-        <v>13756070</v>
+        <v>14772250</v>
       </c>
       <c r="F43">
-        <v>3249432</v>
+        <v>3902227</v>
       </c>
       <c r="G43">
-        <v>3249432</v>
+        <v>3902227</v>
       </c>
       <c r="H43">
-        <v>488983</v>
+        <v>619960</v>
       </c>
       <c r="I43">
-        <v>365459</v>
+        <v>530036</v>
       </c>
       <c r="J43">
-        <v>720442</v>
+        <v>334251</v>
       </c>
       <c r="K43">
-        <v>720442</v>
+        <v>334251</v>
       </c>
       <c r="L43">
-        <v>57198</v>
+        <v>22281</v>
       </c>
       <c r="M43">
-        <v>27453</v>
+        <v>15174</v>
       </c>
       <c r="N43">
-        <v>720442</v>
+        <v>334251</v>
       </c>
       <c r="O43">
-        <v>720442</v>
+        <v>334251</v>
       </c>
       <c r="P43">
-        <v>57198</v>
+        <v>22281</v>
       </c>
       <c r="Q43">
-        <v>27453</v>
+        <v>15174</v>
       </c>
       <c r="R43">
-        <v>1525535</v>
+        <v>705957</v>
       </c>
       <c r="S43">
-        <v>11.0899043113331</v>
+        <v>4.7789402426847598</v>
       </c>
       <c r="T43" t="s">
         <v>161</v>
@@ -4776,55 +4758,55 @@
         <v>163</v>
       </c>
       <c r="C44">
-        <v>7386125</v>
+        <v>6868701</v>
       </c>
       <c r="D44">
-        <v>7386125</v>
+        <v>6868701</v>
       </c>
       <c r="E44">
-        <v>14772250</v>
+        <v>13737402</v>
       </c>
       <c r="F44">
-        <v>3902227</v>
+        <v>4091488</v>
       </c>
       <c r="G44">
-        <v>3902227</v>
+        <v>4091488</v>
       </c>
       <c r="H44">
-        <v>619960</v>
+        <v>495849</v>
       </c>
       <c r="I44">
-        <v>530036</v>
+        <v>353608</v>
       </c>
       <c r="J44">
-        <v>334251</v>
+        <v>120527</v>
       </c>
       <c r="K44">
-        <v>334251</v>
+        <v>120527</v>
       </c>
       <c r="L44">
-        <v>22281</v>
+        <v>11705</v>
       </c>
       <c r="M44">
-        <v>15174</v>
+        <v>7254</v>
       </c>
       <c r="N44">
-        <v>334251</v>
+        <v>120527</v>
       </c>
       <c r="O44">
-        <v>334251</v>
+        <v>120527</v>
       </c>
       <c r="P44">
-        <v>22281</v>
+        <v>11705</v>
       </c>
       <c r="Q44">
-        <v>15174</v>
+        <v>7254</v>
       </c>
       <c r="R44">
-        <v>705957</v>
+        <v>260013</v>
       </c>
       <c r="S44">
-        <v>4.7789402426847598</v>
+        <v>1.8927377971468</v>
       </c>
       <c r="T44" t="s">
         <v>164</v>
@@ -4853,55 +4835,55 @@
         <v>166</v>
       </c>
       <c r="C45">
-        <v>6868701</v>
+        <v>3807379</v>
       </c>
       <c r="D45">
-        <v>6868701</v>
+        <v>3807379</v>
       </c>
       <c r="E45">
-        <v>13737402</v>
+        <v>7614758</v>
       </c>
       <c r="F45">
-        <v>4091488</v>
+        <v>2075320</v>
       </c>
       <c r="G45">
-        <v>4091488</v>
+        <v>2075320</v>
       </c>
       <c r="H45">
-        <v>495849</v>
+        <v>332199</v>
       </c>
       <c r="I45">
-        <v>353608</v>
+        <v>235395</v>
       </c>
       <c r="J45">
-        <v>120527</v>
+        <v>906876</v>
       </c>
       <c r="K45">
-        <v>120527</v>
+        <v>906876</v>
       </c>
       <c r="L45">
-        <v>11705</v>
+        <v>74095</v>
       </c>
       <c r="M45">
-        <v>7254</v>
+        <v>27553</v>
       </c>
       <c r="N45">
-        <v>120527</v>
+        <v>906876</v>
       </c>
       <c r="O45">
-        <v>120527</v>
+        <v>906876</v>
       </c>
       <c r="P45">
-        <v>11705</v>
+        <v>74095</v>
       </c>
       <c r="Q45">
-        <v>7254</v>
+        <v>27553</v>
       </c>
       <c r="R45">
-        <v>260013</v>
+        <v>1915400</v>
       </c>
       <c r="S45">
-        <v>1.8927377971468</v>
+        <v>25.153786896444998</v>
       </c>
       <c r="T45" t="s">
         <v>167</v>
@@ -4930,55 +4912,55 @@
         <v>169</v>
       </c>
       <c r="C46">
-        <v>3807379</v>
+        <v>4625586</v>
       </c>
       <c r="D46">
-        <v>3807379</v>
+        <v>4625586</v>
       </c>
       <c r="E46">
-        <v>7614758</v>
+        <v>9251172</v>
       </c>
       <c r="F46">
-        <v>2075320</v>
+        <v>2871600</v>
       </c>
       <c r="G46">
-        <v>2075320</v>
+        <v>2871600</v>
       </c>
       <c r="H46">
-        <v>332199</v>
+        <v>393008</v>
       </c>
       <c r="I46">
-        <v>235395</v>
+        <v>284196</v>
       </c>
       <c r="J46">
-        <v>906876</v>
+        <v>147015</v>
       </c>
       <c r="K46">
-        <v>906876</v>
+        <v>147015</v>
       </c>
       <c r="L46">
-        <v>74095</v>
+        <v>10482</v>
       </c>
       <c r="M46">
-        <v>27553</v>
+        <v>5098</v>
       </c>
       <c r="N46">
-        <v>906876</v>
+        <v>147015</v>
       </c>
       <c r="O46">
-        <v>906876</v>
+        <v>147015</v>
       </c>
       <c r="P46">
-        <v>74095</v>
+        <v>10482</v>
       </c>
       <c r="Q46">
-        <v>27553</v>
+        <v>5098</v>
       </c>
       <c r="R46">
-        <v>1915400</v>
+        <v>309610</v>
       </c>
       <c r="S46">
-        <v>25.153786896444998</v>
+        <v>3.3467110977938801</v>
       </c>
       <c r="T46" t="s">
         <v>170</v>
@@ -4987,7 +4969,7 @@
         <v>28</v>
       </c>
       <c r="V46" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="W46" t="s">
         <v>83</v>
@@ -4996,7 +4978,7 @@
         <v>104</v>
       </c>
       <c r="Y46" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.2">
@@ -5007,55 +4989,55 @@
         <v>172</v>
       </c>
       <c r="C47">
-        <v>4625586</v>
+        <v>1834605</v>
       </c>
       <c r="D47">
-        <v>4625586</v>
+        <v>1834605</v>
       </c>
       <c r="E47">
-        <v>9251172</v>
+        <v>3669210</v>
       </c>
       <c r="F47">
-        <v>2871600</v>
+        <v>1410121</v>
       </c>
       <c r="G47">
-        <v>2871600</v>
+        <v>1410121</v>
       </c>
       <c r="H47">
-        <v>393008</v>
+        <v>123739</v>
       </c>
       <c r="I47">
-        <v>284196</v>
+        <v>57528</v>
       </c>
       <c r="J47">
-        <v>147015</v>
+        <v>1267836</v>
       </c>
       <c r="K47">
-        <v>147015</v>
+        <v>1267836</v>
       </c>
       <c r="L47">
-        <v>10482</v>
+        <v>109431</v>
       </c>
       <c r="M47">
-        <v>5098</v>
+        <v>50243</v>
       </c>
       <c r="N47">
-        <v>147015</v>
+        <v>1267836</v>
       </c>
       <c r="O47">
-        <v>147015</v>
+        <v>1267836</v>
       </c>
       <c r="P47">
-        <v>10482</v>
+        <v>109431</v>
       </c>
       <c r="Q47">
-        <v>5098</v>
+        <v>50243</v>
       </c>
       <c r="R47">
-        <v>309610</v>
+        <v>2695346</v>
       </c>
       <c r="S47">
-        <v>3.3467110977938801</v>
+        <v>73.4584828886872</v>
       </c>
       <c r="T47" t="s">
         <v>173</v>
@@ -5084,55 +5066,55 @@
         <v>175</v>
       </c>
       <c r="C48">
-        <v>1834605</v>
+        <v>3096021</v>
       </c>
       <c r="D48">
-        <v>1834605</v>
+        <v>3096021</v>
       </c>
       <c r="E48">
-        <v>3669210</v>
+        <v>6192042</v>
       </c>
       <c r="F48">
-        <v>1410121</v>
+        <v>1522065</v>
       </c>
       <c r="G48">
-        <v>1410121</v>
+        <v>1522065</v>
       </c>
       <c r="H48">
-        <v>123739</v>
+        <v>211045</v>
       </c>
       <c r="I48">
-        <v>57528</v>
+        <v>147233</v>
       </c>
       <c r="J48">
-        <v>1267836</v>
+        <v>634059</v>
       </c>
       <c r="K48">
-        <v>1267836</v>
+        <v>634059</v>
       </c>
       <c r="L48">
-        <v>109431</v>
+        <v>50050</v>
       </c>
       <c r="M48">
-        <v>50243</v>
+        <v>26392</v>
       </c>
       <c r="N48">
-        <v>1267836</v>
+        <v>634059</v>
       </c>
       <c r="O48">
-        <v>1267836</v>
+        <v>634059</v>
       </c>
       <c r="P48">
-        <v>109431</v>
+        <v>50050</v>
       </c>
       <c r="Q48">
-        <v>50243</v>
+        <v>26392</v>
       </c>
       <c r="R48">
-        <v>2695346</v>
+        <v>1344560</v>
       </c>
       <c r="S48">
-        <v>73.4584828886872</v>
+        <v>21.714322997163102</v>
       </c>
       <c r="T48" t="s">
         <v>176</v>
@@ -5161,55 +5143,55 @@
         <v>178</v>
       </c>
       <c r="C49">
-        <v>3096021</v>
+        <v>3138424</v>
       </c>
       <c r="D49">
-        <v>3096021</v>
+        <v>3138424</v>
       </c>
       <c r="E49">
-        <v>6192042</v>
+        <v>6276848</v>
       </c>
       <c r="F49">
-        <v>1522065</v>
+        <v>2176653</v>
       </c>
       <c r="G49">
-        <v>1522065</v>
+        <v>2176653</v>
       </c>
       <c r="H49">
-        <v>211045</v>
+        <v>158993</v>
       </c>
       <c r="I49">
-        <v>147233</v>
+        <v>111753</v>
       </c>
       <c r="J49">
-        <v>634059</v>
+        <v>1543621</v>
       </c>
       <c r="K49">
-        <v>634059</v>
+        <v>1543621</v>
       </c>
       <c r="L49">
-        <v>50050</v>
+        <v>106603</v>
       </c>
       <c r="M49">
-        <v>26392</v>
+        <v>74222</v>
       </c>
       <c r="N49">
-        <v>634059</v>
+        <v>1543621</v>
       </c>
       <c r="O49">
-        <v>634059</v>
+        <v>1543621</v>
       </c>
       <c r="P49">
-        <v>50050</v>
+        <v>106603</v>
       </c>
       <c r="Q49">
-        <v>26392</v>
+        <v>74222</v>
       </c>
       <c r="R49">
-        <v>1344560</v>
+        <v>3268067</v>
       </c>
       <c r="S49">
-        <v>21.714322997163102</v>
+        <v>52.0654156353635</v>
       </c>
       <c r="T49" t="s">
         <v>179</v>
@@ -5238,55 +5220,55 @@
         <v>181</v>
       </c>
       <c r="C50">
-        <v>3138424</v>
+        <v>6467348</v>
       </c>
       <c r="D50">
-        <v>3138424</v>
+        <v>6467348</v>
       </c>
       <c r="E50">
-        <v>6276848</v>
+        <v>12934696</v>
       </c>
       <c r="F50">
-        <v>2176653</v>
+        <v>3779506</v>
       </c>
       <c r="G50">
-        <v>2176653</v>
+        <v>3779506</v>
       </c>
       <c r="H50">
-        <v>158993</v>
+        <v>464726</v>
       </c>
       <c r="I50">
-        <v>111753</v>
+        <v>338000</v>
       </c>
       <c r="J50">
-        <v>1543621</v>
+        <v>200373</v>
       </c>
       <c r="K50">
-        <v>1543621</v>
+        <v>200373</v>
       </c>
       <c r="L50">
-        <v>106603</v>
+        <v>13297</v>
       </c>
       <c r="M50">
-        <v>74222</v>
+        <v>7594</v>
       </c>
       <c r="N50">
-        <v>1543621</v>
+        <v>200373</v>
       </c>
       <c r="O50">
-        <v>1543621</v>
+        <v>200373</v>
       </c>
       <c r="P50">
-        <v>106603</v>
+        <v>13297</v>
       </c>
       <c r="Q50">
-        <v>74222</v>
+        <v>7594</v>
       </c>
       <c r="R50">
-        <v>3268067</v>
+        <v>421637</v>
       </c>
       <c r="S50">
-        <v>52.0654156353635</v>
+        <v>3.2597364483865698</v>
       </c>
       <c r="T50" t="s">
         <v>182</v>
@@ -5315,55 +5297,55 @@
         <v>184</v>
       </c>
       <c r="C51">
-        <v>6467348</v>
+        <v>5822544</v>
       </c>
       <c r="D51">
-        <v>6467348</v>
+        <v>5822544</v>
       </c>
       <c r="E51">
-        <v>12934696</v>
+        <v>11645088</v>
       </c>
       <c r="F51">
-        <v>3779506</v>
+        <v>3062916</v>
       </c>
       <c r="G51">
-        <v>3779506</v>
+        <v>3062916</v>
       </c>
       <c r="H51">
-        <v>464726</v>
+        <v>419257</v>
       </c>
       <c r="I51">
-        <v>338000</v>
+        <v>316575</v>
       </c>
       <c r="J51">
-        <v>200373</v>
+        <v>230243</v>
       </c>
       <c r="K51">
-        <v>200373</v>
+        <v>230243</v>
       </c>
       <c r="L51">
-        <v>13297</v>
+        <v>17789</v>
       </c>
       <c r="M51">
-        <v>7594</v>
+        <v>9910</v>
       </c>
       <c r="N51">
-        <v>200373</v>
+        <v>230243</v>
       </c>
       <c r="O51">
-        <v>200373</v>
+        <v>230243</v>
       </c>
       <c r="P51">
-        <v>13297</v>
+        <v>17789</v>
       </c>
       <c r="Q51">
-        <v>7594</v>
+        <v>9910</v>
       </c>
       <c r="R51">
-        <v>421637</v>
+        <v>488185</v>
       </c>
       <c r="S51">
-        <v>3.2597364483865698</v>
+        <v>4.1921967442410004</v>
       </c>
       <c r="T51" t="s">
         <v>185</v>
@@ -5392,55 +5374,55 @@
         <v>187</v>
       </c>
       <c r="C52">
-        <v>5822544</v>
+        <v>6385033</v>
       </c>
       <c r="D52">
-        <v>5822544</v>
+        <v>6385033</v>
       </c>
       <c r="E52">
-        <v>11645088</v>
+        <v>12770066</v>
       </c>
       <c r="F52">
-        <v>3062916</v>
+        <v>2656582</v>
       </c>
       <c r="G52">
-        <v>3062916</v>
+        <v>2656582</v>
       </c>
       <c r="H52">
-        <v>419257</v>
+        <v>490624</v>
       </c>
       <c r="I52">
-        <v>316575</v>
+        <v>376972</v>
       </c>
       <c r="J52">
-        <v>230243</v>
+        <v>499972</v>
       </c>
       <c r="K52">
-        <v>230243</v>
+        <v>499972</v>
       </c>
       <c r="L52">
-        <v>17789</v>
+        <v>40095</v>
       </c>
       <c r="M52">
-        <v>9910</v>
+        <v>20477</v>
       </c>
       <c r="N52">
-        <v>230243</v>
+        <v>499972</v>
       </c>
       <c r="O52">
-        <v>230243</v>
+        <v>499972</v>
       </c>
       <c r="P52">
-        <v>17789</v>
+        <v>40095</v>
       </c>
       <c r="Q52">
-        <v>9910</v>
+        <v>20477</v>
       </c>
       <c r="R52">
-        <v>488185</v>
+        <v>1060516</v>
       </c>
       <c r="S52">
-        <v>4.1921967442410004</v>
+        <v>8.3047025755387605</v>
       </c>
       <c r="T52" t="s">
         <v>188</v>
@@ -5449,7 +5431,7 @@
         <v>28</v>
       </c>
       <c r="V52" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="W52" t="s">
         <v>83</v>
@@ -5458,160 +5440,6 @@
         <v>104</v>
       </c>
       <c r="Y52" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>189</v>
-      </c>
-      <c r="B53" t="s">
-        <v>190</v>
-      </c>
-      <c r="C53">
-        <v>6385033</v>
-      </c>
-      <c r="D53">
-        <v>6385033</v>
-      </c>
-      <c r="E53">
-        <v>12770066</v>
-      </c>
-      <c r="F53">
-        <v>2656582</v>
-      </c>
-      <c r="G53">
-        <v>2656582</v>
-      </c>
-      <c r="H53">
-        <v>490624</v>
-      </c>
-      <c r="I53">
-        <v>376972</v>
-      </c>
-      <c r="J53">
-        <v>499972</v>
-      </c>
-      <c r="K53">
-        <v>499972</v>
-      </c>
-      <c r="L53">
-        <v>40095</v>
-      </c>
-      <c r="M53">
-        <v>20477</v>
-      </c>
-      <c r="N53">
-        <v>499972</v>
-      </c>
-      <c r="O53">
-        <v>499972</v>
-      </c>
-      <c r="P53">
-        <v>40095</v>
-      </c>
-      <c r="Q53">
-        <v>20477</v>
-      </c>
-      <c r="R53">
-        <v>1060516</v>
-      </c>
-      <c r="S53">
-        <v>8.3047025755387605</v>
-      </c>
-      <c r="T53" t="s">
-        <v>191</v>
-      </c>
-      <c r="U53" t="s">
-        <v>28</v>
-      </c>
-      <c r="V53" t="s">
-        <v>57</v>
-      </c>
-      <c r="W53" t="s">
-        <v>83</v>
-      </c>
-      <c r="X53" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>192</v>
-      </c>
-      <c r="B54" t="s">
-        <v>193</v>
-      </c>
-      <c r="C54">
-        <v>6657457</v>
-      </c>
-      <c r="D54">
-        <v>6657457</v>
-      </c>
-      <c r="E54">
-        <v>13314914</v>
-      </c>
-      <c r="F54">
-        <v>2874854</v>
-      </c>
-      <c r="G54">
-        <v>2874854</v>
-      </c>
-      <c r="H54">
-        <v>515670</v>
-      </c>
-      <c r="I54">
-        <v>390254</v>
-      </c>
-      <c r="J54">
-        <v>179286</v>
-      </c>
-      <c r="K54">
-        <v>179286</v>
-      </c>
-      <c r="L54">
-        <v>16158</v>
-      </c>
-      <c r="M54">
-        <v>7191</v>
-      </c>
-      <c r="N54">
-        <v>179286</v>
-      </c>
-      <c r="O54">
-        <v>179286</v>
-      </c>
-      <c r="P54">
-        <v>16158</v>
-      </c>
-      <c r="Q54">
-        <v>7191</v>
-      </c>
-      <c r="R54">
-        <v>381921</v>
-      </c>
-      <c r="S54">
-        <v>2.8683700097499698</v>
-      </c>
-      <c r="T54" t="s">
-        <v>194</v>
-      </c>
-      <c r="U54" t="s">
-        <v>28</v>
-      </c>
-      <c r="V54" t="s">
-        <v>57</v>
-      </c>
-      <c r="W54" t="s">
-        <v>83</v>
-      </c>
-      <c r="X54" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y54" t="s">
         <v>84</v>
       </c>
     </row>
